--- a/Testcase_template.xlsx
+++ b/Testcase_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-кейс 1" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
   <si>
     <t>MANUAL TESTING TEST CASE TEMPLATE</t>
   </si>
@@ -117,9 +117,6 @@
 Нажать кнопку "Войти"</t>
   </si>
   <si>
-    <t>+79213104883</t>
-  </si>
-  <si>
     <t>Проверка авторизации при вводе корректного логина и пароля</t>
   </si>
   <si>
@@ -151,10 +148,6 @@
 успешной активации аккаунта.
 2. Пользователь может войти в систему с
 указанными при регистрации данными.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alenushka-86@yandex.su
-</t>
   </si>
   <si>
     <t>Пароль вводится в виде звездочек</t>
@@ -200,10 +193,6 @@
 логин ВЕРХНИМ регистром и
 пароль
 Нажать кнопку "Войти"</t>
-  </si>
-  <si>
-    <t>ALENUSHKA-86@YANDEX.RU
-пароль</t>
   </si>
   <si>
     <t>Изменение пароля</t>
@@ -257,6 +246,9 @@
   </si>
   <si>
     <t>Ввод данных невозможен</t>
+  </si>
+  <si>
+    <t>пройден</t>
   </si>
 </sst>
 </file>
@@ -883,27 +875,27 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1176,11 +1168,11 @@
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,11 +1190,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1228,12 +1220,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -1273,8 +1265,8 @@
       <c r="E11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>28</v>
+      <c r="F11" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1281,9 @@
       <c r="E12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="43" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
@@ -1303,7 +1297,9 @@
       <c r="E13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -2360,7 +2356,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2442,11 +2438,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2505,7 +2501,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
       <c r="C5" s="61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="63"/>
@@ -2594,12 +2590,12 @@
     <row r="8" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>64</v>
+      <c r="C8" s="58" t="s">
+        <v>61</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2693,14 +2689,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>63</v>
+      <c r="F11" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -30464,11 +30460,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30486,11 +30482,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
-        <v>29</v>
+      <c r="C5" s="55" t="s">
+        <v>28</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -30516,12 +30512,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -30589,7 +30585,7 @@
       <c r="E13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -30599,11 +30595,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -31652,7 +31648,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31694,11 +31690,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31716,11 +31712,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
-        <v>47</v>
+      <c r="C5" s="55" t="s">
+        <v>45</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -31746,12 +31742,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -31813,15 +31809,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="57" t="s">
-        <v>50</v>
-      </c>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -31829,11 +31823,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -32863,11 +32857,8 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
@@ -32882,7 +32873,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32924,11 +32915,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32946,11 +32937,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
-        <v>44</v>
+      <c r="C5" s="55" t="s">
+        <v>42</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32976,12 +32967,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -33043,15 +33034,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="F13" s="57" t="s">
-        <v>36</v>
-      </c>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -34089,11 +34078,8 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
@@ -34150,11 +34136,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -34172,11 +34158,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
-        <v>33</v>
+      <c r="C5" s="55" t="s">
+        <v>32</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34202,12 +34188,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -34269,13 +34255,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="F13" s="57"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -35371,11 +35357,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -35393,11 +35379,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
-        <v>42</v>
+      <c r="C5" s="55" t="s">
+        <v>40</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -35423,12 +35409,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -35490,13 +35476,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
-      <c r="F13" s="57"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -35504,11 +35490,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -36554,7 +36540,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36596,11 +36582,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36618,11 +36604,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
-        <v>46</v>
+      <c r="C5" s="55" t="s">
+        <v>44</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36648,12 +36634,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -36715,14 +36701,14 @@
         <v>3</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="F13" s="57" t="s">
-        <v>30</v>
+      <c r="F13" s="50" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37822,11 +37808,11 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37844,11 +37830,11 @@
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="59" t="s">
-        <v>51</v>
+      <c r="C5" s="55" t="s">
+        <v>48</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37874,12 +37860,12 @@
     <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="60" t="s">
-        <v>48</v>
+      <c r="C8" s="58" t="s">
+        <v>46</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -37941,13 +37927,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
-      <c r="F13" s="57"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -37955,14 +37941,14 @@
         <v>4</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>55</v>
+      <c r="F14" s="50" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -37971,11 +37957,11 @@
         <v>5</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -37985,14 +37971,14 @@
         <v>6</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
